--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\CMT\ΕΔΣΝΑ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ABE1E4-7DD8-43F9-892E-77E10B03131D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020056BA-A9DB-40C2-BB7D-AEEB3BB4EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="81">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -280,6 +280,9 @@
   <si>
     <t>woman</t>
   </si>
+  <si>
+    <t>ΣΜΑ Σχιστού_2</t>
+  </si>
 </sst>
 </file>
 
@@ -289,7 +292,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,51 +624,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AO9" sqref="AO9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.140625" customWidth="1"/>
-    <col min="39" max="39" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.7109375" customWidth="1"/>
-    <col min="41" max="41" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.6640625" customWidth="1"/>
+    <col min="41" max="41" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="16" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="23" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.28515625" customWidth="1"/>
-    <col min="68" max="68" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.85546875" customWidth="1"/>
-    <col min="74" max="74" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.33203125" customWidth="1"/>
+    <col min="68" max="68" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.88671875" customWidth="1"/>
+    <col min="74" max="74" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="2" customFormat="1">
+    <row r="1" spans="1:74" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -889,7 +892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:74">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>45770</v>
       </c>
@@ -912,7 +915,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1080,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:74">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>45771</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>45772</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>45773</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45774</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:74">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45775</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:74">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45776</v>
       </c>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:74">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>45777</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:74">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45778</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:74">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45779</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:74">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>45780</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:74">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>45781</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:74">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>45782</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:74">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>45783</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:74">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>45784</v>
       </c>
@@ -3514,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>45786</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>45787</v>
       </c>
@@ -3848,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>45788</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>45790</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45791</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>45792</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>45793</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>45794</v>
       </c>
@@ -4879,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>45795</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:73">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>45796</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:73">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>45797</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:73">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>45798</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:73">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>45799</v>
       </c>
@@ -5712,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:73">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>45800</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:73">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>45811</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:73">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>45812</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:73">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>45813</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:73">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>45814</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:73">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45815</v>
       </c>
@@ -6743,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:73">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>45816</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:73">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>45817</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:73">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>45818</v>
       </c>
@@ -7270,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:73">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>45819</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:73">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>45820</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:73">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>45821</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:73">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>45822</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:73">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>45823</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:73">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45824</v>
       </c>
@@ -8370,7 +8373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:73">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45825</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:73">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45826</v>
       </c>
@@ -8729,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45827</v>
       </c>
@@ -8897,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:73">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45829</v>
       </c>
@@ -9065,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:73">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>45830</v>
       </c>
@@ -9256,7 +9259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:73">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>45831</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45833</v>
       </c>
@@ -9615,7 +9618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:73">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>45834</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:73">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>45836</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:73">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>45858</v>
       </c>
@@ -10136,7 +10139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:73">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>45859</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:73">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>45860</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:73">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>45861</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:73">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>45862</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:73">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>45863</v>
       </c>
@@ -11008,7 +11011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:73">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>45864</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:73">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>45865</v>
       </c>
@@ -11344,7 +11347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:73">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>45866</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:73">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>45875</v>
       </c>
@@ -11635,7 +11638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:73">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>45876</v>
       </c>
@@ -11826,7 +11829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:73">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>45877</v>
       </c>
@@ -11994,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:73">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>45878</v>
       </c>
@@ -12162,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:73">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>45880</v>
       </c>
@@ -12354,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:73">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>45883</v>
       </c>
@@ -12522,7 +12525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:73">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>45884</v>
       </c>
@@ -12713,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:73">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>45885</v>
       </c>
@@ -12823,7 +12826,7 @@
       <c r="BS70" s="4"/>
       <c r="BT70" s="4"/>
     </row>
-    <row r="71" spans="1:73">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45886</v>
       </c>
@@ -12985,7 +12988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:73">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>45887</v>
       </c>

--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020056BA-A9DB-40C2-BB7D-AEEB3BB4EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67BDFA9-D194-4E37-BB6F-3873ED5E2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="84">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -281,7 +285,16 @@
     <t>woman</t>
   </si>
   <si>
-    <t>ΣΜΑ Σχιστού_2</t>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of id_ergazomenou</t>
   </si>
 </sst>
 </file>
@@ -333,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -342,6 +355,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,6 +375,727 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vagelis" refreshedDate="45560.602858101855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{0FF73404-FECE-4A0F-8B74-4479BD15AC43}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B1048576" sheet="Φύλλο1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="id_ergazomenou" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="45770" maxValue="45887" count="72">
+        <n v="45770"/>
+        <n v="45771"/>
+        <n v="45772"/>
+        <n v="45773"/>
+        <n v="45774"/>
+        <n v="45775"/>
+        <n v="45776"/>
+        <n v="45777"/>
+        <n v="45778"/>
+        <n v="45779"/>
+        <n v="45780"/>
+        <n v="45781"/>
+        <n v="45782"/>
+        <n v="45783"/>
+        <n v="45784"/>
+        <n v="45786"/>
+        <n v="45787"/>
+        <n v="45788"/>
+        <n v="45790"/>
+        <n v="45791"/>
+        <n v="45792"/>
+        <n v="45793"/>
+        <n v="45794"/>
+        <n v="45795"/>
+        <n v="45796"/>
+        <n v="45797"/>
+        <n v="45798"/>
+        <n v="45799"/>
+        <n v="45800"/>
+        <n v="45811"/>
+        <n v="45812"/>
+        <n v="45813"/>
+        <n v="45814"/>
+        <n v="45815"/>
+        <n v="45816"/>
+        <n v="45817"/>
+        <n v="45818"/>
+        <n v="45819"/>
+        <n v="45820"/>
+        <n v="45821"/>
+        <n v="45822"/>
+        <n v="45823"/>
+        <n v="45824"/>
+        <n v="45825"/>
+        <n v="45826"/>
+        <n v="45827"/>
+        <n v="45829"/>
+        <n v="45830"/>
+        <n v="45831"/>
+        <n v="45833"/>
+        <n v="45834"/>
+        <n v="45836"/>
+        <n v="45858"/>
+        <n v="45859"/>
+        <n v="45860"/>
+        <n v="45861"/>
+        <n v="45862"/>
+        <n v="45863"/>
+        <n v="45864"/>
+        <n v="45865"/>
+        <n v="45866"/>
+        <n v="45875"/>
+        <n v="45876"/>
+        <n v="45877"/>
+        <n v="45878"/>
+        <n v="45880"/>
+        <n v="45883"/>
+        <n v="45884"/>
+        <n v="45885"/>
+        <n v="45886"/>
+        <n v="45887"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="hmerominia_symplirosis_entupo_klinikis_eksetasis" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-26T05:29:36" maxDate="2024-06-28T10:18:23"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+  <r>
+    <x v="0"/>
+    <d v="2024-06-26T05:29:36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-06-26T06:08:15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-06-26T06:45:27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-06-26T05:53:27"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2024-06-26T05:59:51"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-06-26T05:42:11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-06-26T06:16:15"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-06-26T06:32:07"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <d v="2024-06-26T06:53:55"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <d v="2024-06-26T06:24:57"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <d v="2024-06-26T07:25:39"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <d v="2024-06-26T07:18:52"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <d v="2024-06-26T07:35:28"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <d v="2024-06-26T07:07:48"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <d v="2024-06-26T07:55:09"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <d v="2024-06-26T07:49:47"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <d v="2024-06-26T09:06:12"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <d v="2024-06-26T08:58:38"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <d v="2024-06-26T09:23:50"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <d v="2024-06-26T08:19:08"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2024-06-26T08:50:47"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <d v="2024-06-26T08:43:53"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <d v="2024-06-26T08:30:01"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <d v="2024-06-26T09:34:46"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <d v="2024-06-26T09:15:54"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <d v="2024-06-26T09:29:58"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <d v="2024-06-26T09:53:15"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <d v="2024-06-26T10:40:41"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <d v="2024-06-26T10:27:04"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <d v="2024-06-27T05:47:37"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <d v="2024-06-27T05:27:02"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <d v="2024-06-27T06:25:01"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <d v="2024-06-27T06:13:35"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <d v="2024-06-27T05:19:42"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <d v="2024-06-27T06:31:50"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <d v="2024-06-27T06:39:04"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <d v="2024-06-27T05:34:46"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <d v="2024-06-27T07:02:37"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <d v="2024-06-27T05:57:14"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <d v="2024-06-27T06:07:24"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <d v="2024-06-27T06:51:17"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <d v="2024-06-27T06:45:37"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <d v="2024-06-27T08:08:08"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <d v="2024-06-27T07:32:13"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <d v="2024-06-27T06:57:35"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <d v="2024-06-27T07:17:16"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <d v="2024-06-27T08:30:25"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <d v="2024-06-27T08:41:25"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <d v="2024-06-27T09:35:15"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <d v="2024-06-27T09:50:16"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <d v="2024-06-27T10:23:07"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <d v="2024-06-27T10:29:59"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <d v="2024-06-28T05:56:05"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <d v="2024-06-28T05:16:41"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <d v="2024-06-28T06:02:00"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <d v="2024-06-28T05:44:28"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <d v="2024-06-28T06:54:01"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <d v="2024-06-28T05:38:53"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <d v="2024-06-28T05:27:21"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <d v="2024-06-28T06:19:24"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <d v="2024-06-28T06:49:08"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <d v="2024-06-28T07:44:02"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <d v="2024-06-28T06:36:52"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <d v="2024-06-28T07:26:54"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <d v="2024-06-28T07:49:28"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <d v="2024-06-28T08:49:35"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <d v="2024-06-28T09:08:39"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <d v="2024-06-28T08:59:22"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <m/>
+  </r>
+  <r>
+    <x v="69"/>
+    <d v="2024-06-28T10:18:23"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <d v="2024-06-28T09:45:34"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A25FA41-45C8-4C44-B751-A0425A3D9C13}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="73">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="73">
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id_ergazomenou" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,11 +1360,620 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD482345-7868-4744-B898-D61026A307FE}">
+  <dimension ref="A3:B76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>45877</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>45830</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>45821</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>45771</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>45861</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>45772</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>45770</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>45773</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>45825</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>45774</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>45836</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>45775</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>45865</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>45776</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>45884</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>45819</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>45778</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>45823</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>45779</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>45827</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>45780</v>
+      </c>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>45833</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>45781</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>45859</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>45782</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>45863</v>
+      </c>
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>45875</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>45784</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>45880</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>45886</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>45787</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>45818</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>45788</v>
+      </c>
+      <c r="B39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>45820</v>
+      </c>
+      <c r="B40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>45790</v>
+      </c>
+      <c r="B41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>45822</v>
+      </c>
+      <c r="B42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>45791</v>
+      </c>
+      <c r="B43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>45824</v>
+      </c>
+      <c r="B44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>45792</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>45826</v>
+      </c>
+      <c r="B46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>45793</v>
+      </c>
+      <c r="B47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>45829</v>
+      </c>
+      <c r="B48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>45794</v>
+      </c>
+      <c r="B49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>45831</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>45795</v>
+      </c>
+      <c r="B51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>45834</v>
+      </c>
+      <c r="B52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>45796</v>
+      </c>
+      <c r="B53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>45858</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>45797</v>
+      </c>
+      <c r="B55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>45860</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>45798</v>
+      </c>
+      <c r="B57" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>45862</v>
+      </c>
+      <c r="B58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>45799</v>
+      </c>
+      <c r="B59" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>45864</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>45800</v>
+      </c>
+      <c r="B61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>45811</v>
+      </c>
+      <c r="B63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>45876</v>
+      </c>
+      <c r="B64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>45812</v>
+      </c>
+      <c r="B65" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>45878</v>
+      </c>
+      <c r="B66" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>45813</v>
+      </c>
+      <c r="B67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>45883</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>45814</v>
+      </c>
+      <c r="B69" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>45885</v>
+      </c>
+      <c r="B70" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>45815</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>45887</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>45816</v>
+      </c>
+      <c r="B73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>45817</v>
+      </c>
+      <c r="B74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="10"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" s="10">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,7 +2263,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J2">
         <v>0</v>

--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67BDFA9-D194-4E37-BB6F-3873ED5E2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C7B70-8278-4EB7-8A6D-E30667EED6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="85">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Count of id_ergazomenou</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1973,7 +1976,7 @@
   <dimension ref="A1:BV72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11344,6 +11347,12 @@
       <c r="F54" t="s">
         <v>74</v>
       </c>
+      <c r="G54">
+        <v>99</v>
+      </c>
+      <c r="H54" t="s">
+        <v>84</v>
+      </c>
       <c r="J54">
         <v>0</v>
       </c>
@@ -12026,6 +12035,15 @@
       </c>
       <c r="E58" s="1">
         <v>45541.476921296293</v>
+      </c>
+      <c r="F58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58">
+        <v>99</v>
+      </c>
+      <c r="H58" t="s">
+        <v>84</v>
       </c>
       <c r="J58">
         <v>0</v>

--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9C7B70-8278-4EB7-8A6D-E30667EED6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582E66B-C5BD-457A-B7B1-87BB74C5468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582E66B-C5BD-457A-B7B1-87BB74C5468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67BDFA9-D194-4E37-BB6F-3873ED5E2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="84">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>Count of id_ergazomenou</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +1973,7 @@
   <dimension ref="A1:BV72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11347,12 +11344,6 @@
       <c r="F54" t="s">
         <v>74</v>
       </c>
-      <c r="G54">
-        <v>99</v>
-      </c>
-      <c r="H54" t="s">
-        <v>84</v>
-      </c>
       <c r="J54">
         <v>0</v>
       </c>
@@ -12035,15 +12026,6 @@
       </c>
       <c r="E58" s="1">
         <v>45541.476921296293</v>
-      </c>
-      <c r="F58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G58">
-        <v>99</v>
-      </c>
-      <c r="H58" t="s">
-        <v>84</v>
       </c>
       <c r="J58">
         <v>0</v>

--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -8,21 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67BDFA9-D194-4E37-BB6F-3873ED5E2F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF799C38-FBA6-4B2A-AED1-5437F9A0CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="80">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -284,18 +280,6 @@
   <si>
     <t>woman</t>
   </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of id_ergazomenou</t>
-  </si>
 </sst>
 </file>
 
@@ -346,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -355,11 +339,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,727 +354,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vagelis" refreshedDate="45560.602858101855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{0FF73404-FECE-4A0F-8B74-4479BD15AC43}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B1048576" sheet="Φύλλο1"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="id_ergazomenou" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="45770" maxValue="45887" count="72">
-        <n v="45770"/>
-        <n v="45771"/>
-        <n v="45772"/>
-        <n v="45773"/>
-        <n v="45774"/>
-        <n v="45775"/>
-        <n v="45776"/>
-        <n v="45777"/>
-        <n v="45778"/>
-        <n v="45779"/>
-        <n v="45780"/>
-        <n v="45781"/>
-        <n v="45782"/>
-        <n v="45783"/>
-        <n v="45784"/>
-        <n v="45786"/>
-        <n v="45787"/>
-        <n v="45788"/>
-        <n v="45790"/>
-        <n v="45791"/>
-        <n v="45792"/>
-        <n v="45793"/>
-        <n v="45794"/>
-        <n v="45795"/>
-        <n v="45796"/>
-        <n v="45797"/>
-        <n v="45798"/>
-        <n v="45799"/>
-        <n v="45800"/>
-        <n v="45811"/>
-        <n v="45812"/>
-        <n v="45813"/>
-        <n v="45814"/>
-        <n v="45815"/>
-        <n v="45816"/>
-        <n v="45817"/>
-        <n v="45818"/>
-        <n v="45819"/>
-        <n v="45820"/>
-        <n v="45821"/>
-        <n v="45822"/>
-        <n v="45823"/>
-        <n v="45824"/>
-        <n v="45825"/>
-        <n v="45826"/>
-        <n v="45827"/>
-        <n v="45829"/>
-        <n v="45830"/>
-        <n v="45831"/>
-        <n v="45833"/>
-        <n v="45834"/>
-        <n v="45836"/>
-        <n v="45858"/>
-        <n v="45859"/>
-        <n v="45860"/>
-        <n v="45861"/>
-        <n v="45862"/>
-        <n v="45863"/>
-        <n v="45864"/>
-        <n v="45865"/>
-        <n v="45866"/>
-        <n v="45875"/>
-        <n v="45876"/>
-        <n v="45877"/>
-        <n v="45878"/>
-        <n v="45880"/>
-        <n v="45883"/>
-        <n v="45884"/>
-        <n v="45885"/>
-        <n v="45886"/>
-        <n v="45887"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="hmerominia_symplirosis_entupo_klinikis_eksetasis" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-26T05:29:36" maxDate="2024-06-28T10:18:23"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
-  <r>
-    <x v="0"/>
-    <d v="2024-06-26T05:29:36"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <d v="2024-06-26T06:08:15"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <d v="2024-06-26T06:45:27"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <d v="2024-06-26T05:53:27"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <d v="2024-06-26T05:59:51"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <d v="2024-06-26T05:42:11"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <d v="2024-06-26T06:16:15"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <d v="2024-06-26T06:32:07"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <d v="2024-06-26T06:53:55"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <d v="2024-06-26T06:24:57"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <d v="2024-06-26T07:25:39"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <d v="2024-06-26T07:18:52"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <d v="2024-06-26T07:35:28"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <d v="2024-06-26T07:07:48"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <d v="2024-06-26T07:55:09"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <d v="2024-06-26T07:49:47"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <d v="2024-06-26T09:06:12"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <d v="2024-06-26T08:58:38"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <d v="2024-06-26T09:23:50"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <d v="2024-06-26T08:19:08"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <d v="2024-06-26T08:50:47"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <d v="2024-06-26T08:43:53"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <d v="2024-06-26T08:30:01"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <d v="2024-06-26T09:34:46"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <d v="2024-06-26T09:15:54"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <d v="2024-06-26T09:29:58"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <d v="2024-06-26T09:53:15"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <d v="2024-06-26T10:40:41"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <d v="2024-06-26T10:27:04"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <d v="2024-06-27T05:47:37"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <d v="2024-06-27T05:27:02"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <d v="2024-06-27T06:25:01"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <d v="2024-06-27T06:13:35"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <d v="2024-06-27T05:19:42"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <d v="2024-06-27T06:31:50"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <d v="2024-06-27T06:39:04"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <d v="2024-06-27T05:34:46"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <d v="2024-06-27T07:02:37"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <d v="2024-06-27T05:57:14"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <d v="2024-06-27T06:07:24"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <d v="2024-06-27T06:51:17"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <d v="2024-06-27T06:45:37"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <d v="2024-06-27T08:08:08"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <d v="2024-06-27T07:32:13"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <d v="2024-06-27T06:57:35"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <d v="2024-06-27T07:17:16"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <d v="2024-06-27T08:30:25"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <d v="2024-06-27T08:41:25"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <d v="2024-06-27T09:35:15"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <d v="2024-06-27T09:50:16"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <d v="2024-06-27T10:23:07"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <d v="2024-06-27T10:29:59"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <d v="2024-06-28T05:56:05"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <d v="2024-06-28T05:16:41"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <d v="2024-06-28T06:02:00"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <d v="2024-06-28T05:44:28"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <d v="2024-06-28T06:54:01"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <d v="2024-06-28T05:38:53"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <d v="2024-06-28T05:27:21"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <d v="2024-06-28T06:19:24"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <d v="2024-06-28T06:49:08"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <d v="2024-06-28T07:44:02"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <d v="2024-06-28T06:36:52"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <d v="2024-06-28T07:26:54"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <d v="2024-06-28T07:49:28"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <d v="2024-06-28T08:49:35"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <d v="2024-06-28T09:08:39"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <d v="2024-06-28T08:59:22"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <m/>
-  </r>
-  <r>
-    <x v="69"/>
-    <d v="2024-06-28T10:18:23"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <d v="2024-06-28T09:45:34"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A25FA41-45C8-4C44-B751-A0425A3D9C13}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="73">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="73">
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of id_ergazomenou" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,615 +618,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD482345-7868-4744-B898-D61026A307FE}">
-  <dimension ref="A3:B76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>45877</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>45830</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>45821</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>45771</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>45861</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>45772</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>45770</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>45773</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>45825</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>45774</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>45836</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>45775</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>45865</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>45776</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>45884</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>45777</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>45819</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>45778</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>45823</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>45779</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>45827</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>45780</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>45833</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>45781</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>45859</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>45782</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>45863</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>45783</v>
-      </c>
-      <c r="B31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>45875</v>
-      </c>
-      <c r="B32" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>45784</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>45880</v>
-      </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>45786</v>
-      </c>
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>45886</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>45787</v>
-      </c>
-      <c r="B37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>45818</v>
-      </c>
-      <c r="B38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>45788</v>
-      </c>
-      <c r="B39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>45820</v>
-      </c>
-      <c r="B40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>45790</v>
-      </c>
-      <c r="B41" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>45822</v>
-      </c>
-      <c r="B42" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>45791</v>
-      </c>
-      <c r="B43" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>45824</v>
-      </c>
-      <c r="B44" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>45792</v>
-      </c>
-      <c r="B45" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>45826</v>
-      </c>
-      <c r="B46" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>45793</v>
-      </c>
-      <c r="B47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>45829</v>
-      </c>
-      <c r="B48" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>45794</v>
-      </c>
-      <c r="B49" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>45831</v>
-      </c>
-      <c r="B50" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <v>45795</v>
-      </c>
-      <c r="B51" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
-        <v>45834</v>
-      </c>
-      <c r="B52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>45796</v>
-      </c>
-      <c r="B53" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
-        <v>45858</v>
-      </c>
-      <c r="B54" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
-        <v>45797</v>
-      </c>
-      <c r="B55" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
-        <v>45860</v>
-      </c>
-      <c r="B56" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
-        <v>45798</v>
-      </c>
-      <c r="B57" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
-        <v>45862</v>
-      </c>
-      <c r="B58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
-        <v>45799</v>
-      </c>
-      <c r="B59" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
-        <v>45864</v>
-      </c>
-      <c r="B60" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
-        <v>45800</v>
-      </c>
-      <c r="B61" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
-        <v>45866</v>
-      </c>
-      <c r="B62" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
-        <v>45811</v>
-      </c>
-      <c r="B63" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
-        <v>45876</v>
-      </c>
-      <c r="B64" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
-        <v>45812</v>
-      </c>
-      <c r="B65" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
-        <v>45878</v>
-      </c>
-      <c r="B66" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
-        <v>45813</v>
-      </c>
-      <c r="B67" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
-        <v>45883</v>
-      </c>
-      <c r="B68" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
-        <v>45814</v>
-      </c>
-      <c r="B69" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="9">
-        <v>45885</v>
-      </c>
-      <c r="B70" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
-        <v>45815</v>
-      </c>
-      <c r="B71" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
-        <v>45887</v>
-      </c>
-      <c r="B72" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
-        <v>45816</v>
-      </c>
-      <c r="B73" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="9">
-        <v>45817</v>
-      </c>
-      <c r="B74" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="10"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="10">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>

--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -5,20 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmtprooptiki-my.sharepoint.com/personal/vintzoglou_cmtprooptiki_gr/Documents/Αρχεία συνομιλίας του Microsoft Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF799C38-FBA6-4B2A-AED1-5437F9A0CF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E582E66B-C5BD-457A-B7B1-87BB74C5468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BA1092-97C0-424B-AC70-5595E44EB6F7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="84">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -280,6 +284,18 @@
   <si>
     <t>woman</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of id_ergazomenou</t>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -339,6 +355,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,6 +374,731 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vagelis" refreshedDate="45560.602858101855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{0FF73404-FECE-4A0F-8B74-4479BD15AC43}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B1048576" sheet="Φύλλο1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="id_ergazomenou" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="45770" maxValue="45887" count="72">
+        <n v="45770"/>
+        <n v="45771"/>
+        <n v="45772"/>
+        <n v="45773"/>
+        <n v="45774"/>
+        <n v="45775"/>
+        <n v="45776"/>
+        <n v="45777"/>
+        <n v="45778"/>
+        <n v="45779"/>
+        <n v="45780"/>
+        <n v="45781"/>
+        <n v="45782"/>
+        <n v="45783"/>
+        <n v="45784"/>
+        <n v="45786"/>
+        <n v="45787"/>
+        <n v="45788"/>
+        <n v="45790"/>
+        <n v="45791"/>
+        <n v="45792"/>
+        <n v="45793"/>
+        <n v="45794"/>
+        <n v="45795"/>
+        <n v="45796"/>
+        <n v="45797"/>
+        <n v="45798"/>
+        <n v="45799"/>
+        <n v="45800"/>
+        <n v="45811"/>
+        <n v="45812"/>
+        <n v="45813"/>
+        <n v="45814"/>
+        <n v="45815"/>
+        <n v="45816"/>
+        <n v="45817"/>
+        <n v="45818"/>
+        <n v="45819"/>
+        <n v="45820"/>
+        <n v="45821"/>
+        <n v="45822"/>
+        <n v="45823"/>
+        <n v="45824"/>
+        <n v="45825"/>
+        <n v="45826"/>
+        <n v="45827"/>
+        <n v="45829"/>
+        <n v="45830"/>
+        <n v="45831"/>
+        <n v="45833"/>
+        <n v="45834"/>
+        <n v="45836"/>
+        <n v="45858"/>
+        <n v="45859"/>
+        <n v="45860"/>
+        <n v="45861"/>
+        <n v="45862"/>
+        <n v="45863"/>
+        <n v="45864"/>
+        <n v="45865"/>
+        <n v="45866"/>
+        <n v="45875"/>
+        <n v="45876"/>
+        <n v="45877"/>
+        <n v="45878"/>
+        <n v="45880"/>
+        <n v="45883"/>
+        <n v="45884"/>
+        <n v="45885"/>
+        <n v="45886"/>
+        <n v="45887"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="hmerominia_symplirosis_entupo_klinikis_eksetasis" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-26T05:29:36" maxDate="2024-06-28T10:18:23"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
+  <r>
+    <x v="0"/>
+    <d v="2024-06-26T05:29:36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2024-06-26T06:08:15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2024-06-26T06:45:27"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2024-06-26T05:53:27"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2024-06-26T05:59:51"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2024-06-26T05:42:11"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2024-06-26T06:16:15"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2024-06-26T06:32:07"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <d v="2024-06-26T06:53:55"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <d v="2024-06-26T06:24:57"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <d v="2024-06-26T07:25:39"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <d v="2024-06-26T07:18:52"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <d v="2024-06-26T07:35:28"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <d v="2024-06-26T07:07:48"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <d v="2024-06-26T07:55:09"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <d v="2024-06-26T07:49:47"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <d v="2024-06-26T09:06:12"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <d v="2024-06-26T08:58:38"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <d v="2024-06-26T09:23:50"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <d v="2024-06-26T08:19:08"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2024-06-26T08:50:47"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <d v="2024-06-26T08:43:53"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <d v="2024-06-26T08:30:01"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <d v="2024-06-26T09:34:46"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <d v="2024-06-26T09:15:54"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <d v="2024-06-26T09:29:58"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <d v="2024-06-26T09:53:15"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <d v="2024-06-26T10:40:41"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <d v="2024-06-26T10:27:04"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <d v="2024-06-27T05:47:37"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <d v="2024-06-27T05:27:02"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <d v="2024-06-27T06:25:01"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <d v="2024-06-27T06:13:35"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <d v="2024-06-27T05:19:42"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <d v="2024-06-27T06:31:50"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <d v="2024-06-27T06:39:04"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <d v="2024-06-27T05:34:46"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <d v="2024-06-27T07:02:37"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <d v="2024-06-27T05:57:14"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <d v="2024-06-27T06:07:24"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <d v="2024-06-27T06:51:17"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <d v="2024-06-27T06:45:37"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <d v="2024-06-27T08:08:08"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <d v="2024-06-27T07:32:13"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <d v="2024-06-27T06:57:35"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <d v="2024-06-27T07:17:16"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <d v="2024-06-27T08:30:25"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <d v="2024-06-27T08:41:25"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <d v="2024-06-27T09:35:15"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <d v="2024-06-27T09:50:16"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <d v="2024-06-27T10:23:07"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <d v="2024-06-27T10:29:59"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <d v="2024-06-28T05:56:05"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <d v="2024-06-28T05:16:41"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <d v="2024-06-28T06:02:00"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <d v="2024-06-28T05:44:28"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <d v="2024-06-28T06:54:01"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <d v="2024-06-28T05:38:53"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <d v="2024-06-28T05:27:21"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <d v="2024-06-28T06:19:24"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <d v="2024-06-28T06:49:08"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <d v="2024-06-28T07:44:02"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <d v="2024-06-28T06:36:52"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <d v="2024-06-28T07:26:54"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <d v="2024-06-28T07:49:28"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <d v="2024-06-28T08:49:35"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <d v="2024-06-28T09:08:39"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <d v="2024-06-28T08:59:22"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <m/>
+  </r>
+  <r>
+    <x v="69"/>
+    <d v="2024-06-28T10:18:23"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <d v="2024-06-28T09:45:34"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A25FA41-45C8-4C44-B751-A0425A3D9C13}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="73">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="73">
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id_ergazomenou" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,11 +1363,619 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD482345-7868-4744-B898-D61026A307FE}">
+  <dimension ref="A3:B76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>45877</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>45830</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>45821</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>45771</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>45861</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>45772</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>45770</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>45773</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>45825</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>45774</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>45836</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>45775</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>45865</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>45776</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>45884</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>45819</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>45778</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>45823</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>45779</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>45827</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>45780</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>45833</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>45781</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>45859</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>45782</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>45863</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>45875</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>45784</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>45880</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>45886</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>45787</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>45818</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>45788</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>45820</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>45790</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>45822</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>45791</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>45824</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>45792</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>45826</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>45793</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>45829</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>45794</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>45831</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>45795</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>45834</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>45796</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>45858</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>45797</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>45860</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>45798</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>45862</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>45799</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>45864</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>45800</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>45866</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>45811</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>45876</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>45812</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>45878</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>45813</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>45883</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>45814</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
+        <v>45885</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
+        <v>45815</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
+        <v>45887</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
+        <v>45816</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
+        <v>45817</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9993,6 +11346,12 @@
       <c r="F54" t="s">
         <v>74</v>
       </c>
+      <c r="G54">
+        <v>58</v>
+      </c>
+      <c r="H54" t="s">
+        <v>75</v>
+      </c>
       <c r="J54">
         <v>0</v>
       </c>
@@ -10675,6 +12034,15 @@
       </c>
       <c r="E58" s="1">
         <v>45541.476921296293</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58">
+        <v>55</v>
+      </c>
+      <c r="H58" t="s">
+        <v>75</v>
       </c>
       <c r="J58">
         <v>0</v>

--- a/atomikos_fakelos_data_sep_2024.xlsx
+++ b/atomikos_fakelos_data_sep_2024.xlsx
@@ -5,24 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmtprooptiki-my.sharepoint.com/personal/vintzoglou_cmtprooptiki_gr/Documents/Αρχεία συνομιλίας του Microsoft Teams/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vagelis\Desktop\deiktes_paratiritirio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E582E66B-C5BD-457A-B7B1-87BB74C5468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17BA1092-97C0-424B-AC70-5595E44EB6F7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F94D9E-059E-46CA-8F3F-5212668A56D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId2"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Φύλλο1!$A$1:$BV$72</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="80">
   <si>
     <t>id_ergazomenou</t>
   </si>
@@ -284,18 +280,6 @@
   <si>
     <t>woman</t>
   </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of id_ergazomenou</t>
-  </si>
 </sst>
 </file>
 
@@ -346,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -355,10 +339,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,731 +354,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vagelis" refreshedDate="45560.602858101855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="72" xr:uid="{0FF73404-FECE-4A0F-8B74-4479BD15AC43}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B1048576" sheet="Φύλλο1"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="id_ergazomenou" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="45770" maxValue="45887" count="72">
-        <n v="45770"/>
-        <n v="45771"/>
-        <n v="45772"/>
-        <n v="45773"/>
-        <n v="45774"/>
-        <n v="45775"/>
-        <n v="45776"/>
-        <n v="45777"/>
-        <n v="45778"/>
-        <n v="45779"/>
-        <n v="45780"/>
-        <n v="45781"/>
-        <n v="45782"/>
-        <n v="45783"/>
-        <n v="45784"/>
-        <n v="45786"/>
-        <n v="45787"/>
-        <n v="45788"/>
-        <n v="45790"/>
-        <n v="45791"/>
-        <n v="45792"/>
-        <n v="45793"/>
-        <n v="45794"/>
-        <n v="45795"/>
-        <n v="45796"/>
-        <n v="45797"/>
-        <n v="45798"/>
-        <n v="45799"/>
-        <n v="45800"/>
-        <n v="45811"/>
-        <n v="45812"/>
-        <n v="45813"/>
-        <n v="45814"/>
-        <n v="45815"/>
-        <n v="45816"/>
-        <n v="45817"/>
-        <n v="45818"/>
-        <n v="45819"/>
-        <n v="45820"/>
-        <n v="45821"/>
-        <n v="45822"/>
-        <n v="45823"/>
-        <n v="45824"/>
-        <n v="45825"/>
-        <n v="45826"/>
-        <n v="45827"/>
-        <n v="45829"/>
-        <n v="45830"/>
-        <n v="45831"/>
-        <n v="45833"/>
-        <n v="45834"/>
-        <n v="45836"/>
-        <n v="45858"/>
-        <n v="45859"/>
-        <n v="45860"/>
-        <n v="45861"/>
-        <n v="45862"/>
-        <n v="45863"/>
-        <n v="45864"/>
-        <n v="45865"/>
-        <n v="45866"/>
-        <n v="45875"/>
-        <n v="45876"/>
-        <n v="45877"/>
-        <n v="45878"/>
-        <n v="45880"/>
-        <n v="45883"/>
-        <n v="45884"/>
-        <n v="45885"/>
-        <n v="45886"/>
-        <n v="45887"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="hmerominia_symplirosis_entupo_klinikis_eksetasis" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-06-26T05:29:36" maxDate="2024-06-28T10:18:23"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="72">
-  <r>
-    <x v="0"/>
-    <d v="2024-06-26T05:29:36"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <d v="2024-06-26T06:08:15"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <d v="2024-06-26T06:45:27"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <d v="2024-06-26T05:53:27"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <d v="2024-06-26T05:59:51"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <d v="2024-06-26T05:42:11"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <d v="2024-06-26T06:16:15"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <d v="2024-06-26T06:32:07"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <d v="2024-06-26T06:53:55"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <d v="2024-06-26T06:24:57"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <d v="2024-06-26T07:25:39"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <d v="2024-06-26T07:18:52"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <d v="2024-06-26T07:35:28"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <d v="2024-06-26T07:07:48"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <d v="2024-06-26T07:55:09"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <d v="2024-06-26T07:49:47"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <d v="2024-06-26T09:06:12"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <d v="2024-06-26T08:58:38"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <d v="2024-06-26T09:23:50"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <d v="2024-06-26T08:19:08"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <d v="2024-06-26T08:50:47"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <d v="2024-06-26T08:43:53"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <d v="2024-06-26T08:30:01"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <d v="2024-06-26T09:34:46"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <d v="2024-06-26T09:15:54"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <d v="2024-06-26T09:29:58"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <d v="2024-06-26T09:53:15"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <d v="2024-06-26T10:40:41"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <d v="2024-06-26T10:27:04"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <d v="2024-06-27T05:47:37"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <d v="2024-06-27T05:27:02"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <d v="2024-06-27T06:25:01"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <d v="2024-06-27T06:13:35"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <d v="2024-06-27T05:19:42"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <d v="2024-06-27T06:31:50"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <d v="2024-06-27T06:39:04"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <d v="2024-06-27T05:34:46"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <d v="2024-06-27T07:02:37"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <d v="2024-06-27T05:57:14"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <d v="2024-06-27T06:07:24"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <d v="2024-06-27T06:51:17"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <d v="2024-06-27T06:45:37"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <d v="2024-06-27T08:08:08"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <d v="2024-06-27T07:32:13"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <d v="2024-06-27T06:57:35"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <d v="2024-06-27T07:17:16"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <d v="2024-06-27T08:30:25"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <d v="2024-06-27T08:41:25"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <d v="2024-06-27T09:35:15"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <d v="2024-06-27T09:50:16"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <d v="2024-06-27T10:23:07"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <d v="2024-06-27T10:29:59"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <d v="2024-06-28T05:56:05"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <d v="2024-06-28T05:16:41"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <d v="2024-06-28T06:02:00"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <d v="2024-06-28T05:44:28"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <d v="2024-06-28T06:54:01"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <d v="2024-06-28T05:38:53"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <d v="2024-06-28T05:27:21"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <d v="2024-06-28T06:19:24"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <d v="2024-06-28T06:49:08"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <d v="2024-06-28T07:44:02"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <d v="2024-06-28T06:36:52"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <d v="2024-06-28T07:26:54"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <d v="2024-06-28T07:49:28"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <d v="2024-06-28T08:49:35"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <d v="2024-06-28T09:08:39"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <d v="2024-06-28T08:59:22"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <m/>
-  </r>
-  <r>
-    <x v="69"/>
-    <d v="2024-06-28T10:18:23"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <d v="2024-06-28T09:45:34"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A25FA41-45C8-4C44-B751-A0425A3D9C13}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="73">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="73">
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of id_ergazomenou" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1363,614 +618,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD482345-7868-4744-B898-D61026A307FE}">
-  <dimension ref="A3:B76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>45877</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>45830</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>45821</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>45771</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>45861</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>45772</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>45770</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>45773</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>45825</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>45774</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>45836</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>45775</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>45865</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>45776</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>45884</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>45777</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>45819</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>45778</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>45823</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>45779</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>45827</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>45780</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>45833</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>45781</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>45859</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>45782</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>45863</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>45783</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>45875</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>45784</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>45880</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>45786</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>45886</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>45787</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>45818</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>45788</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>45820</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>45790</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
-        <v>45822</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
-        <v>45791</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>45824</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>45792</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
-        <v>45826</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
-        <v>45793</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>45829</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
-        <v>45794</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
-        <v>45831</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
-        <v>45795</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
-        <v>45834</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
-        <v>45796</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
-        <v>45858</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
-        <v>45797</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="9">
-        <v>45860</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="9">
-        <v>45798</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
-        <v>45862</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
-        <v>45799</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="9">
-        <v>45864</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="9">
-        <v>45800</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
-        <v>45866</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
-        <v>45811</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="9">
-        <v>45876</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="9">
-        <v>45812</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
-        <v>45878</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
-        <v>45813</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
-        <v>45883</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="9">
-        <v>45814</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="9">
-        <v>45885</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="9">
-        <v>45815</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="9">
-        <v>45887</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="9">
-        <v>45816</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="9">
-        <v>45817</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BV72"/>
   <sheetViews>
